--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cxcl14</t>
+  </si>
+  <si>
+    <t>Cxcr4</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cxcl14</t>
-  </si>
-  <si>
-    <t>Cxcr4</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3366983333333333</v>
+        <v>81.70587766666667</v>
       </c>
       <c r="H2">
-        <v>1.010095</v>
+        <v>245.117633</v>
       </c>
       <c r="I2">
-        <v>0.004071997874471895</v>
+        <v>0.9869543006433561</v>
       </c>
       <c r="J2">
-        <v>0.004071997874471895</v>
+        <v>0.9869543006433561</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>161.9042856666667</v>
+        <v>30.52246933333333</v>
       </c>
       <c r="N2">
-        <v>485.712857</v>
+        <v>91.567408</v>
       </c>
       <c r="O2">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547768</v>
       </c>
       <c r="P2">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547769</v>
       </c>
       <c r="Q2">
-        <v>54.51290314349056</v>
+        <v>2493.865145433918</v>
       </c>
       <c r="R2">
-        <v>490.616128291415</v>
+        <v>22444.78630890526</v>
       </c>
       <c r="S2">
-        <v>0.001559320380512561</v>
+        <v>0.1044952189027587</v>
       </c>
       <c r="T2">
-        <v>0.001559320380512562</v>
+        <v>0.1044952189027587</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3366983333333333</v>
+        <v>81.70587766666667</v>
       </c>
       <c r="H3">
-        <v>1.010095</v>
+        <v>245.117633</v>
       </c>
       <c r="I3">
-        <v>0.004071997874471895</v>
+        <v>0.9869543006433561</v>
       </c>
       <c r="J3">
-        <v>0.004071997874471895</v>
+        <v>0.9869543006433561</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.9232319999999999</v>
       </c>
       <c r="O3">
-        <v>0.0007278787860563825</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="P3">
-        <v>0.0007278787860563827</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="Q3">
-        <v>0.1036168918933333</v>
+        <v>25.14449361665066</v>
       </c>
       <c r="R3">
-        <v>0.93255202704</v>
+        <v>226.300442549856</v>
       </c>
       <c r="S3">
-        <v>2.963920869694773E-06</v>
+        <v>0.001053577162935874</v>
       </c>
       <c r="T3">
-        <v>2.963920869694774E-06</v>
+        <v>0.001053577162935874</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3366983333333333</v>
+        <v>81.70587766666667</v>
       </c>
       <c r="H4">
-        <v>1.010095</v>
+        <v>245.117633</v>
       </c>
       <c r="I4">
-        <v>0.004071997874471895</v>
+        <v>0.9869543006433561</v>
       </c>
       <c r="J4">
-        <v>0.004071997874471895</v>
+        <v>0.9869543006433561</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35.56644499999999</v>
+        <v>47.57542166666667</v>
       </c>
       <c r="N4">
-        <v>106.699335</v>
+        <v>142.726265</v>
       </c>
       <c r="O4">
-        <v>0.08412206512861695</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="P4">
-        <v>0.08412206512861696</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="Q4">
-        <v>11.97516275409166</v>
+        <v>3887.19158263675</v>
       </c>
       <c r="R4">
-        <v>107.776464786825</v>
+        <v>34984.72424373074</v>
       </c>
       <c r="S4">
-        <v>0.0003425448703999145</v>
+        <v>0.1628768644881609</v>
       </c>
       <c r="T4">
-        <v>0.0003425448703999146</v>
+        <v>0.1628768644881609</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3366983333333333</v>
+        <v>81.70587766666667</v>
       </c>
       <c r="H5">
-        <v>1.010095</v>
+        <v>245.117633</v>
       </c>
       <c r="I5">
-        <v>0.004071997874471895</v>
+        <v>0.9869543006433561</v>
       </c>
       <c r="J5">
-        <v>0.004071997874471895</v>
+        <v>0.9869543006433561</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>225.0171966666667</v>
+        <v>209.8781993333333</v>
       </c>
       <c r="N5">
-        <v>675.05159</v>
+        <v>629.634598</v>
       </c>
       <c r="O5">
-        <v>0.5322126311204886</v>
+        <v>0.7280262516928295</v>
       </c>
       <c r="P5">
-        <v>0.5322126311204887</v>
+        <v>0.7280262516928296</v>
       </c>
       <c r="Q5">
-        <v>75.76291508900556</v>
+        <v>17148.28247962962</v>
       </c>
       <c r="R5">
-        <v>681.86623580105</v>
+        <v>154334.5423166665</v>
       </c>
       <c r="S5">
-        <v>0.002167168702689724</v>
+        <v>0.7185286400895005</v>
       </c>
       <c r="T5">
-        <v>0.002167168702689725</v>
+        <v>0.7185286400895006</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,14 +770,14 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>81.70587766666667</v>
+        <v>0.5979076666666666</v>
       </c>
       <c r="H6">
-        <v>245.117633</v>
+        <v>1.793723</v>
       </c>
       <c r="I6">
-        <v>0.9881431752177587</v>
+        <v>0.007222338953529722</v>
       </c>
       <c r="J6">
-        <v>0.9881431752177587</v>
+        <v>0.007222338953529723</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>161.9042856666667</v>
+        <v>30.52246933333333</v>
       </c>
       <c r="N6">
-        <v>485.712857</v>
+        <v>91.567408</v>
       </c>
       <c r="O6">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547768</v>
       </c>
       <c r="P6">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547769</v>
       </c>
       <c r="Q6">
-        <v>13228.53175838972</v>
+        <v>18.24961841999822</v>
       </c>
       <c r="R6">
-        <v>119056.7858255075</v>
+        <v>164.246565779984</v>
       </c>
       <c r="S6">
-        <v>0.3783970030144673</v>
+        <v>0.0007646756181588657</v>
       </c>
       <c r="T6">
-        <v>0.3783970030144674</v>
+        <v>0.0007646756181588658</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>81.70587766666667</v>
+        <v>0.5979076666666666</v>
       </c>
       <c r="H7">
-        <v>245.117633</v>
+        <v>1.793723</v>
       </c>
       <c r="I7">
-        <v>0.9881431752177587</v>
+        <v>0.007222338953529722</v>
       </c>
       <c r="J7">
-        <v>0.9881431752177587</v>
+        <v>0.007222338953529723</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,22 +871,22 @@
         <v>0.9232319999999999</v>
       </c>
       <c r="O7">
-        <v>0.0007278787860563825</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="P7">
-        <v>0.0007278787860563827</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="Q7">
-        <v>25.14449361665066</v>
+        <v>0.1840024969706666</v>
       </c>
       <c r="R7">
-        <v>226.300442549856</v>
+        <v>1.656022472736</v>
       </c>
       <c r="S7">
-        <v>0.0007192484548274015</v>
+        <v>7.709872057359598E-06</v>
       </c>
       <c r="T7">
-        <v>0.0007192484548274017</v>
+        <v>7.709872057359601E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>81.70587766666667</v>
+        <v>0.5979076666666666</v>
       </c>
       <c r="H8">
-        <v>245.117633</v>
+        <v>1.793723</v>
       </c>
       <c r="I8">
-        <v>0.9881431752177587</v>
+        <v>0.007222338953529722</v>
       </c>
       <c r="J8">
-        <v>0.9881431752177587</v>
+        <v>0.007222338953529723</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.56644499999999</v>
+        <v>47.57542166666667</v>
       </c>
       <c r="N8">
-        <v>106.699335</v>
+        <v>142.726265</v>
       </c>
       <c r="O8">
-        <v>0.08412206512861695</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="P8">
-        <v>0.08412206512861696</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="Q8">
-        <v>2905.987604208228</v>
+        <v>28.44570935939944</v>
       </c>
       <c r="R8">
-        <v>26153.88843787405</v>
+        <v>256.011384234595</v>
       </c>
       <c r="S8">
-        <v>0.08312464454206665</v>
+        <v>0.00119190110652014</v>
       </c>
       <c r="T8">
-        <v>0.08312464454206667</v>
+        <v>0.00119190110652014</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>81.70587766666667</v>
+        <v>0.5979076666666666</v>
       </c>
       <c r="H9">
-        <v>245.117633</v>
+        <v>1.793723</v>
       </c>
       <c r="I9">
-        <v>0.9881431752177587</v>
+        <v>0.007222338953529722</v>
       </c>
       <c r="J9">
-        <v>0.9881431752177587</v>
+        <v>0.007222338953529723</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>225.0171966666667</v>
+        <v>209.8781993333333</v>
       </c>
       <c r="N9">
-        <v>675.05159</v>
+        <v>629.634598</v>
       </c>
       <c r="O9">
-        <v>0.5322126311204886</v>
+        <v>0.7280262516928295</v>
       </c>
       <c r="P9">
-        <v>0.5322126311204887</v>
+        <v>0.7280262516928296</v>
       </c>
       <c r="Q9">
-        <v>18385.22754374294</v>
+        <v>125.4877844475949</v>
       </c>
       <c r="R9">
-        <v>165467.0478936865</v>
+        <v>1129.390060028354</v>
       </c>
       <c r="S9">
-        <v>0.5259022792063973</v>
+        <v>0.005258052356793356</v>
       </c>
       <c r="T9">
-        <v>0.5259022792063974</v>
+        <v>0.005258052356793358</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.323699</v>
+        <v>0.482092</v>
       </c>
       <c r="H10">
-        <v>0.971097</v>
+        <v>1.446276</v>
       </c>
       <c r="I10">
-        <v>0.003914785163678698</v>
+        <v>0.005823360403114167</v>
       </c>
       <c r="J10">
-        <v>0.003914785163678698</v>
+        <v>0.005823360403114167</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>161.9042856666667</v>
+        <v>30.52246933333333</v>
       </c>
       <c r="N10">
-        <v>485.712857</v>
+        <v>91.567408</v>
       </c>
       <c r="O10">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547768</v>
       </c>
       <c r="P10">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547769</v>
       </c>
       <c r="Q10">
-        <v>52.40825536601434</v>
+        <v>14.71463828584533</v>
       </c>
       <c r="R10">
-        <v>471.674298294129</v>
+        <v>132.431744572608</v>
       </c>
       <c r="S10">
-        <v>0.001499117749869673</v>
+        <v>0.0006165567338593148</v>
       </c>
       <c r="T10">
-        <v>0.001499117749869673</v>
+        <v>0.0006165567338593148</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.323699</v>
+        <v>0.482092</v>
       </c>
       <c r="H11">
-        <v>0.971097</v>
+        <v>1.446276</v>
       </c>
       <c r="I11">
-        <v>0.003914785163678698</v>
+        <v>0.005823360403114167</v>
       </c>
       <c r="J11">
-        <v>0.003914785163678698</v>
+        <v>0.005823360403114167</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>0.9232319999999999</v>
       </c>
       <c r="O11">
-        <v>0.0007278787860563825</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="P11">
-        <v>0.0007278787860563827</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="Q11">
-        <v>0.09961642505599999</v>
+        <v>0.148360920448</v>
       </c>
       <c r="R11">
-        <v>0.8965478255039999</v>
+        <v>1.335248284032</v>
       </c>
       <c r="S11">
-        <v>2.849489072609987E-06</v>
+        <v>6.216457568771661E-06</v>
       </c>
       <c r="T11">
-        <v>2.849489072609988E-06</v>
+        <v>6.216457568771663E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.323699</v>
+        <v>0.482092</v>
       </c>
       <c r="H12">
-        <v>0.971097</v>
+        <v>1.446276</v>
       </c>
       <c r="I12">
-        <v>0.003914785163678698</v>
+        <v>0.005823360403114167</v>
       </c>
       <c r="J12">
-        <v>0.003914785163678698</v>
+        <v>0.005823360403114167</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>35.56644499999999</v>
+        <v>47.57542166666667</v>
       </c>
       <c r="N12">
-        <v>106.699335</v>
+        <v>142.726265</v>
       </c>
       <c r="O12">
-        <v>0.08412206512861695</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="P12">
-        <v>0.08412206512861696</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="Q12">
-        <v>11.512822680055</v>
+        <v>22.93573018212667</v>
       </c>
       <c r="R12">
-        <v>103.615404120495</v>
+        <v>206.42157163914</v>
       </c>
       <c r="S12">
-        <v>0.0003293198125035228</v>
+        <v>0.0009610279651504282</v>
       </c>
       <c r="T12">
-        <v>0.0003293198125035228</v>
+        <v>0.0009610279651504282</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.323699</v>
+        <v>0.482092</v>
       </c>
       <c r="H13">
-        <v>0.971097</v>
+        <v>1.446276</v>
       </c>
       <c r="I13">
-        <v>0.003914785163678698</v>
+        <v>0.005823360403114167</v>
       </c>
       <c r="J13">
-        <v>0.003914785163678698</v>
+        <v>0.005823360403114167</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>225.0171966666667</v>
+        <v>209.8781993333333</v>
       </c>
       <c r="N13">
-        <v>675.05159</v>
+        <v>629.634598</v>
       </c>
       <c r="O13">
-        <v>0.5322126311204886</v>
+        <v>0.7280262516928295</v>
       </c>
       <c r="P13">
-        <v>0.5322126311204887</v>
+        <v>0.7280262516928296</v>
       </c>
       <c r="Q13">
-        <v>72.83784154380334</v>
+        <v>101.1806008730053</v>
       </c>
       <c r="R13">
-        <v>655.5405738942301</v>
+        <v>910.6254078570479</v>
       </c>
       <c r="S13">
-        <v>0.002083498112232892</v>
+        <v>0.004239559246535652</v>
       </c>
       <c r="T13">
-        <v>0.002083498112232893</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.3199993333333334</v>
-      </c>
-      <c r="H14">
-        <v>0.9599980000000001</v>
-      </c>
-      <c r="I14">
-        <v>0.003870041744090675</v>
-      </c>
-      <c r="J14">
-        <v>0.003870041744090676</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>161.9042856666667</v>
-      </c>
-      <c r="N14">
-        <v>485.712857</v>
-      </c>
-      <c r="O14">
-        <v>0.3829374249648381</v>
-      </c>
-      <c r="P14">
-        <v>0.3829374249648381</v>
-      </c>
-      <c r="Q14">
-        <v>51.8092634771429</v>
-      </c>
-      <c r="R14">
-        <v>466.2833712942861</v>
-      </c>
-      <c r="S14">
-        <v>0.001481983819988514</v>
-      </c>
-      <c r="T14">
-        <v>0.001481983819988514</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.3199993333333334</v>
-      </c>
-      <c r="H15">
-        <v>0.9599980000000001</v>
-      </c>
-      <c r="I15">
-        <v>0.003870041744090675</v>
-      </c>
-      <c r="J15">
-        <v>0.003870041744090676</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.307744</v>
-      </c>
-      <c r="N15">
-        <v>0.9232319999999999</v>
-      </c>
-      <c r="O15">
-        <v>0.0007278787860563825</v>
-      </c>
-      <c r="P15">
-        <v>0.0007278787860563827</v>
-      </c>
-      <c r="Q15">
-        <v>0.09847787483733333</v>
-      </c>
-      <c r="R15">
-        <v>0.8863008735360001</v>
-      </c>
-      <c r="S15">
-        <v>2.816921286676246E-06</v>
-      </c>
-      <c r="T15">
-        <v>2.816921286676247E-06</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.3199993333333334</v>
-      </c>
-      <c r="H16">
-        <v>0.9599980000000001</v>
-      </c>
-      <c r="I16">
-        <v>0.003870041744090675</v>
-      </c>
-      <c r="J16">
-        <v>0.003870041744090676</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>35.56644499999999</v>
-      </c>
-      <c r="N16">
-        <v>106.699335</v>
-      </c>
-      <c r="O16">
-        <v>0.08412206512861695</v>
-      </c>
-      <c r="P16">
-        <v>0.08412206512861696</v>
-      </c>
-      <c r="Q16">
-        <v>11.38123868903667</v>
-      </c>
-      <c r="R16">
-        <v>102.43114820133</v>
-      </c>
-      <c r="S16">
-        <v>0.0003255559036468621</v>
-      </c>
-      <c r="T16">
-        <v>0.0003255559036468622</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.3199993333333334</v>
-      </c>
-      <c r="H17">
-        <v>0.9599980000000001</v>
-      </c>
-      <c r="I17">
-        <v>0.003870041744090675</v>
-      </c>
-      <c r="J17">
-        <v>0.003870041744090676</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>225.0171966666667</v>
-      </c>
-      <c r="N17">
-        <v>675.05159</v>
-      </c>
-      <c r="O17">
-        <v>0.5322126311204886</v>
-      </c>
-      <c r="P17">
-        <v>0.5322126311204887</v>
-      </c>
-      <c r="Q17">
-        <v>72.00535292186891</v>
-      </c>
-      <c r="R17">
-        <v>648.0481762968201</v>
-      </c>
-      <c r="S17">
-        <v>0.002059685099168623</v>
-      </c>
-      <c r="T17">
-        <v>0.002059685099168623</v>
+        <v>0.004239559246535653</v>
       </c>
     </row>
   </sheetData>
